--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_28_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100319.2591140735</v>
+        <v>18264231.35448312</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100319.2591140735</v>
+        <v>18264231.35448312</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>271210.918844802</v>
+        <v>32796849.19359598</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>271210.918844802</v>
+        <v>32796849.19359598</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1489042597.868882</v>
+        <v>19828190.57360069</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17951.76288479798</v>
+        <v>522107.4859030949</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34926.26161741063</v>
+        <v>906299.7868506561</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51914.76965099206</v>
+        <v>1290492.087798216</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68732.32121168297</v>
+        <v>1674548.658367264</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85550.80016315238</v>
+        <v>2058641.082243894</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102368.9492789685</v>
+        <v>2442733.506120509</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119186.7685591316</v>
+        <v>2826825.929997125</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>136005.1769913228</v>
+        <v>3210918.35387374</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>152823.2529970437</v>
+        <v>3595010.777750309</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>169641.4752229552</v>
+        <v>3979103.201626989</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>186459.3650223962</v>
+        <v>4363195.625503548</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>203277.5141382127</v>
+        <v>4747288.049380132</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>220095.6632540295</v>
+        <v>5131380.473256716</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>237336.0728120859</v>
+        <v>5424726.697487822</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>254743.9019279033</v>
+        <v>5741785.141364322</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>77.00000000001245</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>77.00000000000074</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
